--- a/SimulationStudyData/Model1TwoClasses_Ysim.xlsx
+++ b/SimulationStudyData/Model1TwoClasses_Ysim.xlsx
@@ -407,962 +407,962 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.6061516655249</v>
+        <v>-4.55629583130442</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.30046297049842</v>
+        <v>-4.14610924915121</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.74791671071763</v>
+        <v>-6.04661407617245</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.3560213481525</v>
+        <v>-4.98765886544692</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.87030271526217</v>
+        <v>-5.38967101359874</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.86421088559557</v>
+        <v>-5.88424164775631</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.1027788225612</v>
+        <v>-8.30504739717838</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.62529544644442</v>
+        <v>-7.89937968766425</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.96462811332668</v>
+        <v>-6.71026703178496</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.7496691224855</v>
+        <v>-6.84241533268686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.18390425902726</v>
+        <v>-5.21857834428844</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.55994463044805</v>
+        <v>-4.78786466407844</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.95267269924055</v>
+        <v>-4.29687807575386</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.69494213654539</v>
+        <v>-5.42559053145283</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.57155677959044</v>
+        <v>-5.52126099413009</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.4794102564319</v>
+        <v>-6.13400875449932</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.014018057221</v>
+        <v>-4.9298119773988</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.89271588333591</v>
+        <v>-6.7134906736368</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.86167486873589</v>
+        <v>-8.61934740512678</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.49525185730556</v>
+        <v>-8.83900230064466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.74455662641433</v>
+        <v>-4.23347808316291</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.52544986766289</v>
+        <v>-3.40427569120602</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.64878157509772</v>
+        <v>-5.20264782771614</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.23120856478735</v>
+        <v>-5.71613374592903</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.50372097677872</v>
+        <v>-6.57777797078384</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.99776230743544</v>
+        <v>-6.29021578863594</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.13934971736233</v>
+        <v>-7.19768346825725</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.78088732495016</v>
+        <v>-6.81413898555876</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.02473241481431</v>
+        <v>-7.32686704358282</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.88302727203262</v>
+        <v>-6.94976481722512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.96446698464922</v>
+        <v>-4.10614907601528</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.96592770163039</v>
+        <v>-4.9933140341582</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.80591296591371</v>
+        <v>-5.23207675234043</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.05409315275493</v>
+        <v>-4.98717122511509</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.68218098128666</v>
+        <v>-4.79110170845943</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.92125551546496</v>
+        <v>-7.31985745291721</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.51390105205375</v>
+        <v>-6.90488912225259</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.82700216355492</v>
+        <v>-7.37891688053969</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.27293774951426</v>
+        <v>-7.00859403986958</v>
       </c>
       <c r="J5" t="n">
-        <v>-7.31490491723634</v>
+        <v>-6.22424625205771</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.56346866350089</v>
+        <v>-3.44296075575418</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.57841555958068</v>
+        <v>-5.41920711345306</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.90138470111253</v>
+        <v>-5.8297991781844</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.96801212669064</v>
+        <v>-5.44423038406894</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.61464833779119</v>
+        <v>-5.79559881222178</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.79536558034274</v>
+        <v>-6.9266901989653</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.26573033349676</v>
+        <v>-5.83375020613671</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.24399406094231</v>
+        <v>-6.78549186677274</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.268544468687</v>
+        <v>-8.51074575745182</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.81253816179697</v>
+        <v>-8.2605614757637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.08382285565029</v>
+        <v>-4.30489744434072</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.28219517616508</v>
+        <v>-4.78495399253988</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.92891809429794</v>
+        <v>-5.82002670818971</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.90678870286037</v>
+        <v>-5.11188246535659</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.5265228706151</v>
+        <v>-5.93031427486982</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.90133146461987</v>
+        <v>-5.91016580953573</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.75788214267485</v>
+        <v>-6.32534678276304</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.63218186403136</v>
+        <v>-6.99802386710078</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.46558567658546</v>
+        <v>-6.15678064244642</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.56594764148244</v>
+        <v>-8.08315308417009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.48651463323031</v>
+        <v>-3.02706073455306</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.53633328326841</v>
+        <v>-4.73505860300392</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.58869360761939</v>
+        <v>-4.70161017337181</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.34965240518802</v>
+        <v>-4.54747250315758</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.65586797956378</v>
+        <v>-6.31141700629202</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.07953241508227</v>
+        <v>-6.60720634457109</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.64051267159328</v>
+        <v>-6.03780220925946</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.69385678797629</v>
+        <v>-6.61139951955189</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.52029977788787</v>
+        <v>-7.57164140799275</v>
       </c>
       <c r="J8" t="n">
-        <v>-7.66726363253521</v>
+        <v>-8.56392867322596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.96627877893669</v>
+        <v>-4.83973425349941</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.59109606118264</v>
+        <v>-3.63895055557663</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.53050410505409</v>
+        <v>-4.47887197844613</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.33814851165659</v>
+        <v>-5.85835111375369</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.13447303717839</v>
+        <v>-5.55157752386473</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.95793123316427</v>
+        <v>-6.23173099867227</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.23376712239992</v>
+        <v>-5.42292449702601</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.80010620699852</v>
+        <v>-6.87058735997456</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.03639402466971</v>
+        <v>-7.72337537820283</v>
       </c>
       <c r="J9" t="n">
-        <v>-7.38898470557281</v>
+        <v>-7.32621608363773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.06291695395361</v>
+        <v>-3.53950903528438</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.26365701806045</v>
+        <v>-3.36455123896152</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.67879529853654</v>
+        <v>-3.61879842863122</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.88318370679793</v>
+        <v>-4.85387642790647</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.43612253843593</v>
+        <v>-5.94622576756246</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.05446685526105</v>
+        <v>-5.2332287810561</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.69437122745695</v>
+        <v>-5.65507436946561</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.76235158635113</v>
+        <v>-6.74996586519378</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.50606025352652</v>
+        <v>-8.44083113892243</v>
       </c>
       <c r="J10" t="n">
-        <v>-7.58120249849042</v>
+        <v>-8.69911324582442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.78214409073008</v>
+        <v>-4.8079599159313</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.49577175814394</v>
+        <v>-5.66026912171884</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.76815520363985</v>
+        <v>-4.02362952020794</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.34427303883423</v>
+        <v>-4.70184962843744</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.66978105392716</v>
+        <v>-5.76691883723286</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.04891622408469</v>
+        <v>-6.46562307020774</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.81454180476244</v>
+        <v>-6.87281775813781</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.72667146179063</v>
+        <v>-7.41811754822927</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.02031367235117</v>
+        <v>-6.3825054637252</v>
       </c>
       <c r="J11" t="n">
-        <v>-7.37654651660889</v>
+        <v>-7.95955867945389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.27437481099032</v>
+        <v>-3.41196653331172</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.1781263872811</v>
+        <v>-4.10374958885217</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.01417491750809</v>
+        <v>-4.82148659416289</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.1663634843261</v>
+        <v>-5.62925638552334</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.57709384982856</v>
+        <v>-4.34437945848979</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.44387417053878</v>
+        <v>-6.10007021348075</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.20942570972616</v>
+        <v>-5.48358624772897</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.92651293862433</v>
+        <v>-9.63105341720762</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.9683961183473</v>
+        <v>-7.7033018208243</v>
       </c>
       <c r="J12" t="n">
-        <v>-7.47093556675705</v>
+        <v>-7.30572336805197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.13506158237331</v>
+        <v>-3.17671791695135</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.194425736247</v>
+        <v>-5.54568006347804</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.0683507366984</v>
+        <v>-5.14646641932383</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.82241121097146</v>
+        <v>-5.13874722970781</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.22054115629446</v>
+        <v>-6.3710075172552</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.0911430070366</v>
+        <v>-5.84766043794088</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.04515834910239</v>
+        <v>-5.91199261507859</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.03526618541367</v>
+        <v>-7.10743368824528</v>
       </c>
       <c r="I13" t="n">
-        <v>-6.60991083768938</v>
+        <v>-6.22853400284711</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.66624635650979</v>
+        <v>-7.29381494491856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.34543759075166</v>
+        <v>-4.34230895794552</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.93610532189723</v>
+        <v>-5.10163545430518</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.68017569675202</v>
+        <v>-4.50779996185884</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.64900753309697</v>
+        <v>-5.30349714507299</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.47101544823724</v>
+        <v>-5.54072865018963</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.07547534330863</v>
+        <v>-5.37037584522168</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.7899637920781</v>
+        <v>-7.45300205179375</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.0175090423054</v>
+        <v>-6.25570141154356</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.97546399814241</v>
+        <v>-7.25909219834943</v>
       </c>
       <c r="J14" t="n">
-        <v>-7.3261920175018</v>
+        <v>-8.00972778596636</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.89843843886529</v>
+        <v>-4.24135500005512</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.4851444607912</v>
+        <v>-3.52146912744188</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.89596744892635</v>
+        <v>-4.38583254488575</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.18759847093157</v>
+        <v>-4.97176286418718</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.72611487936547</v>
+        <v>-4.92582316731375</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.91776607837651</v>
+        <v>-6.82857272480694</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.44505244500887</v>
+        <v>-6.73615267066308</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.79520013492317</v>
+        <v>-6.3522749173545</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.74846404262558</v>
+        <v>-6.59461067378167</v>
       </c>
       <c r="J15" t="n">
-        <v>-8.02226703574518</v>
+        <v>-7.38941809250843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.61208398432837</v>
+        <v>-4.53287863582758</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.89888864303663</v>
+        <v>-5.74760132970496</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.76900807039706</v>
+        <v>-3.64154105222551</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.85714136820522</v>
+        <v>-4.87766241053116</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.93234331830132</v>
+        <v>-6.37229515171208</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.99773668556624</v>
+        <v>-7.31597066859955</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.87702339819065</v>
+        <v>-5.49170257266103</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.03624582552299</v>
+        <v>-7.40748220437592</v>
       </c>
       <c r="I16" t="n">
-        <v>-7.23532293102044</v>
+        <v>-7.57649597736439</v>
       </c>
       <c r="J16" t="n">
-        <v>-7.25858941677439</v>
+        <v>-7.92190264913442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.21327442213207</v>
+        <v>3.22195102520495</v>
       </c>
       <c r="B17" t="n">
-        <v>4.47597775200858</v>
+        <v>4.97864197832918</v>
       </c>
       <c r="C17" t="n">
-        <v>5.4608000878024</v>
+        <v>4.79394674731015</v>
       </c>
       <c r="D17" t="n">
-        <v>5.86020563161709</v>
+        <v>4.97788546604952</v>
       </c>
       <c r="E17" t="n">
-        <v>5.32644059168511</v>
+        <v>5.13188100154666</v>
       </c>
       <c r="F17" t="n">
-        <v>6.70908517916834</v>
+        <v>6.36347684110926</v>
       </c>
       <c r="G17" t="n">
-        <v>7.48096681154876</v>
+        <v>5.90542993600043</v>
       </c>
       <c r="H17" t="n">
-        <v>6.21868906299861</v>
+        <v>7.61823091936829</v>
       </c>
       <c r="I17" t="n">
-        <v>6.79777668614968</v>
+        <v>6.58119531359182</v>
       </c>
       <c r="J17" t="n">
-        <v>7.93953031065243</v>
+        <v>8.07764736075505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.60928954643256</v>
+        <v>5.5740724649935</v>
       </c>
       <c r="B18" t="n">
-        <v>6.05386745810703</v>
+        <v>5.27992049810288</v>
       </c>
       <c r="C18" t="n">
-        <v>5.71096560097761</v>
+        <v>5.42137424521472</v>
       </c>
       <c r="D18" t="n">
-        <v>4.075754872701</v>
+        <v>5.69264576903633</v>
       </c>
       <c r="E18" t="n">
-        <v>5.42282991012472</v>
+        <v>6.69966916554544</v>
       </c>
       <c r="F18" t="n">
-        <v>5.32163850693236</v>
+        <v>5.6628857040978</v>
       </c>
       <c r="G18" t="n">
-        <v>7.80306462916264</v>
+        <v>6.98048221064783</v>
       </c>
       <c r="H18" t="n">
-        <v>5.89183175331013</v>
+        <v>6.35373807060501</v>
       </c>
       <c r="I18" t="n">
-        <v>7.19199808532757</v>
+        <v>7.87677505565559</v>
       </c>
       <c r="J18" t="n">
-        <v>6.96377543250473</v>
+        <v>6.51439360039857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.01680765818185</v>
+        <v>4.5240984134196</v>
       </c>
       <c r="B19" t="n">
-        <v>3.60929290408861</v>
+        <v>5.61130235563946</v>
       </c>
       <c r="C19" t="n">
-        <v>5.6081401793636</v>
+        <v>4.72513923177284</v>
       </c>
       <c r="D19" t="n">
-        <v>6.34383236416521</v>
+        <v>5.54779430545092</v>
       </c>
       <c r="E19" t="n">
-        <v>5.14921246627733</v>
+        <v>6.67414979816956</v>
       </c>
       <c r="F19" t="n">
-        <v>6.25781222679237</v>
+        <v>6.99735654615024</v>
       </c>
       <c r="G19" t="n">
-        <v>5.37919893334783</v>
+        <v>6.88035494964823</v>
       </c>
       <c r="H19" t="n">
-        <v>7.35034334241541</v>
+        <v>6.12988917906633</v>
       </c>
       <c r="I19" t="n">
-        <v>7.52976052143114</v>
+        <v>7.02559081775899</v>
       </c>
       <c r="J19" t="n">
-        <v>8.14462883820301</v>
+        <v>6.73592286267063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.08412694405248</v>
+        <v>3.93509643349777</v>
       </c>
       <c r="B20" t="n">
-        <v>4.21240059295897</v>
+        <v>3.52638165458771</v>
       </c>
       <c r="C20" t="n">
-        <v>5.2304695832408</v>
+        <v>4.08702447605519</v>
       </c>
       <c r="D20" t="n">
-        <v>3.9078484879267</v>
+        <v>5.01103804589009</v>
       </c>
       <c r="E20" t="n">
-        <v>4.40495795209547</v>
+        <v>6.40092788363236</v>
       </c>
       <c r="F20" t="n">
-        <v>6.77119902726082</v>
+        <v>5.78815934454826</v>
       </c>
       <c r="G20" t="n">
-        <v>5.47557719083904</v>
+        <v>5.82816162490014</v>
       </c>
       <c r="H20" t="n">
-        <v>7.30202296793987</v>
+        <v>7.42425435005711</v>
       </c>
       <c r="I20" t="n">
-        <v>6.85657520690325</v>
+        <v>7.17041836380447</v>
       </c>
       <c r="J20" t="n">
-        <v>7.92941804705248</v>
+        <v>8.50972127721976</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.34810614173818</v>
+        <v>4.04364205337542</v>
       </c>
       <c r="B21" t="n">
-        <v>4.81083691817889</v>
+        <v>2.93109626263176</v>
       </c>
       <c r="C21" t="n">
-        <v>5.02872417299215</v>
+        <v>5.4375117904583</v>
       </c>
       <c r="D21" t="n">
-        <v>4.43278480903341</v>
+        <v>6.17204548306042</v>
       </c>
       <c r="E21" t="n">
-        <v>4.68090721444017</v>
+        <v>5.50117810526679</v>
       </c>
       <c r="F21" t="n">
-        <v>4.96253112624472</v>
+        <v>6.79161394698697</v>
       </c>
       <c r="G21" t="n">
-        <v>6.27840984499031</v>
+        <v>7.24864464343613</v>
       </c>
       <c r="H21" t="n">
-        <v>6.0147911289112</v>
+        <v>7.32793150853952</v>
       </c>
       <c r="I21" t="n">
-        <v>6.09870026988095</v>
+        <v>8.67647455866204</v>
       </c>
       <c r="J21" t="n">
-        <v>6.77608485768792</v>
+        <v>7.78712946531713</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.31554762407758</v>
+        <v>3.14744022840944</v>
       </c>
       <c r="B22" t="n">
-        <v>4.53489051828275</v>
+        <v>5.09699281907128</v>
       </c>
       <c r="C22" t="n">
-        <v>5.79784263387599</v>
+        <v>4.38823716663646</v>
       </c>
       <c r="D22" t="n">
-        <v>4.95354363480643</v>
+        <v>5.9873632614799</v>
       </c>
       <c r="E22" t="n">
-        <v>4.79248009796293</v>
+        <v>5.30281156779458</v>
       </c>
       <c r="F22" t="n">
-        <v>6.84098864135167</v>
+        <v>5.81873431725186</v>
       </c>
       <c r="G22" t="n">
-        <v>7.15937738293552</v>
+        <v>5.32400597964159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.00366351270145</v>
+        <v>6.34013901682518</v>
       </c>
       <c r="I22" t="n">
-        <v>7.22504135848972</v>
+        <v>7.06216118807775</v>
       </c>
       <c r="J22" t="n">
-        <v>7.55776341134052</v>
+        <v>7.0858199798901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.73917917254626</v>
+        <v>3.32739513812222</v>
       </c>
       <c r="B23" t="n">
-        <v>4.36216515175675</v>
+        <v>4.85111061422458</v>
       </c>
       <c r="C23" t="n">
-        <v>4.16381614406822</v>
+        <v>4.92953271535581</v>
       </c>
       <c r="D23" t="n">
-        <v>4.659627100672</v>
+        <v>6.8566115654944</v>
       </c>
       <c r="E23" t="n">
-        <v>6.29385679597187</v>
+        <v>5.1097278803524</v>
       </c>
       <c r="F23" t="n">
-        <v>5.86978599872013</v>
+        <v>4.60833306812235</v>
       </c>
       <c r="G23" t="n">
-        <v>5.50991919757847</v>
+        <v>6.42062698215528</v>
       </c>
       <c r="H23" t="n">
-        <v>7.60135887305186</v>
+        <v>6.36983040663088</v>
       </c>
       <c r="I23" t="n">
-        <v>7.77694440634322</v>
+        <v>6.92421374611936</v>
       </c>
       <c r="J23" t="n">
-        <v>7.42006448051065</v>
+        <v>8.49361632007427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.68668194335594</v>
+        <v>3.11018590021176</v>
       </c>
       <c r="B24" t="n">
-        <v>3.8787877257367</v>
+        <v>4.44698082532263</v>
       </c>
       <c r="C24" t="n">
-        <v>4.66423571711181</v>
+        <v>5.07089330028899</v>
       </c>
       <c r="D24" t="n">
-        <v>4.99275133171606</v>
+        <v>5.23535558376307</v>
       </c>
       <c r="E24" t="n">
-        <v>5.71769554321969</v>
+        <v>6.37396385403984</v>
       </c>
       <c r="F24" t="n">
-        <v>6.81426106445799</v>
+        <v>6.88581353452234</v>
       </c>
       <c r="G24" t="n">
-        <v>6.18217095060354</v>
+        <v>7.60873326663175</v>
       </c>
       <c r="H24" t="n">
-        <v>7.302178697463</v>
+        <v>7.71151846551419</v>
       </c>
       <c r="I24" t="n">
-        <v>7.24679055877774</v>
+        <v>8.1747471445182</v>
       </c>
       <c r="J24" t="n">
-        <v>7.66671242344182</v>
+        <v>8.0191428078053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.33820744839177</v>
+        <v>4.13741454834257</v>
       </c>
       <c r="B25" t="n">
-        <v>5.67082047349743</v>
+        <v>3.12307443177813</v>
       </c>
       <c r="C25" t="n">
-        <v>5.12397797841431</v>
+        <v>5.92574319717045</v>
       </c>
       <c r="D25" t="n">
-        <v>4.98203280607716</v>
+        <v>3.44136391092636</v>
       </c>
       <c r="E25" t="n">
-        <v>5.51227300846294</v>
+        <v>4.3895747774218</v>
       </c>
       <c r="F25" t="n">
-        <v>7.15183431293318</v>
+        <v>7.70749646548391</v>
       </c>
       <c r="G25" t="n">
-        <v>6.54483586735743</v>
+        <v>7.2498568107423</v>
       </c>
       <c r="H25" t="n">
-        <v>6.96528439870015</v>
+        <v>7.02005079284962</v>
       </c>
       <c r="I25" t="n">
-        <v>8.03439716296234</v>
+        <v>7.16485401891169</v>
       </c>
       <c r="J25" t="n">
-        <v>7.47471678551129</v>
+        <v>8.90019626802214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.32387382073224</v>
+        <v>3.39537683557782</v>
       </c>
       <c r="B26" t="n">
-        <v>3.49432922941673</v>
+        <v>5.85026101264514</v>
       </c>
       <c r="C26" t="n">
-        <v>5.21152870777163</v>
+        <v>4.60785225458003</v>
       </c>
       <c r="D26" t="n">
-        <v>4.29364878371804</v>
+        <v>4.2181818589591</v>
       </c>
       <c r="E26" t="n">
-        <v>7.12969230992261</v>
+        <v>5.62699826587613</v>
       </c>
       <c r="F26" t="n">
-        <v>6.7361106603305</v>
+        <v>6.38061286196108</v>
       </c>
       <c r="G26" t="n">
-        <v>7.15532169411734</v>
+        <v>7.19742330746211</v>
       </c>
       <c r="H26" t="n">
-        <v>6.57725930884038</v>
+        <v>7.48704190931712</v>
       </c>
       <c r="I26" t="n">
-        <v>7.83424178742504</v>
+        <v>6.75001424262996</v>
       </c>
       <c r="J26" t="n">
-        <v>6.90474156511863</v>
+        <v>6.87846209656221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.62415874409546</v>
+        <v>3.06076010869374</v>
       </c>
       <c r="B27" t="n">
-        <v>5.06318002360083</v>
+        <v>4.972985680887</v>
       </c>
       <c r="C27" t="n">
-        <v>5.33316049128299</v>
+        <v>6.08155047135706</v>
       </c>
       <c r="D27" t="n">
-        <v>5.40007461010528</v>
+        <v>5.22340949807348</v>
       </c>
       <c r="E27" t="n">
-        <v>4.80665145856234</v>
+        <v>5.37906118179981</v>
       </c>
       <c r="F27" t="n">
-        <v>5.90338249845689</v>
+        <v>5.73675003260376</v>
       </c>
       <c r="G27" t="n">
-        <v>5.86642413083299</v>
+        <v>6.88421578718966</v>
       </c>
       <c r="H27" t="n">
-        <v>7.76441766568005</v>
+        <v>7.66659015631653</v>
       </c>
       <c r="I27" t="n">
-        <v>7.00927467540796</v>
+        <v>8.46611993988707</v>
       </c>
       <c r="J27" t="n">
-        <v>7.58579810335348</v>
+        <v>8.77838168800128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.35246576052672</v>
+        <v>3.76864343588243</v>
       </c>
       <c r="B28" t="n">
-        <v>4.58013536535979</v>
+        <v>3.45773074862876</v>
       </c>
       <c r="C28" t="n">
-        <v>3.61860648624379</v>
+        <v>4.75598311725304</v>
       </c>
       <c r="D28" t="n">
-        <v>5.67420024577782</v>
+        <v>5.92627590993834</v>
       </c>
       <c r="E28" t="n">
-        <v>5.80499121216073</v>
+        <v>5.18507846852703</v>
       </c>
       <c r="F28" t="n">
-        <v>5.83487498607221</v>
+        <v>6.56858187421099</v>
       </c>
       <c r="G28" t="n">
-        <v>6.52252750842505</v>
+        <v>6.11077212702348</v>
       </c>
       <c r="H28" t="n">
-        <v>6.83000188845984</v>
+        <v>6.53805917085604</v>
       </c>
       <c r="I28" t="n">
-        <v>8.01644664439158</v>
+        <v>7.34627757864555</v>
       </c>
       <c r="J28" t="n">
-        <v>8.55134326672253</v>
+        <v>7.73273094466954</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.21429174775306</v>
+        <v>4.04432729251041</v>
       </c>
       <c r="B29" t="n">
-        <v>4.18841702275704</v>
+        <v>2.79707831333393</v>
       </c>
       <c r="C29" t="n">
-        <v>5.84575921418236</v>
+        <v>5.56991379730441</v>
       </c>
       <c r="D29" t="n">
-        <v>5.26387760373664</v>
+        <v>6.38256317544184</v>
       </c>
       <c r="E29" t="n">
-        <v>5.45732076174097</v>
+        <v>5.5522465368714</v>
       </c>
       <c r="F29" t="n">
-        <v>5.61857931831998</v>
+        <v>6.00975042429905</v>
       </c>
       <c r="G29" t="n">
-        <v>6.90727349006504</v>
+        <v>7.71697304278876</v>
       </c>
       <c r="H29" t="n">
-        <v>5.70711272850013</v>
+        <v>6.83018643327679</v>
       </c>
       <c r="I29" t="n">
-        <v>7.37515999786508</v>
+        <v>7.43262747557637</v>
       </c>
       <c r="J29" t="n">
-        <v>8.9121177942331</v>
+        <v>7.53270125891654</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.03825785601769</v>
+        <v>3.77022613528726</v>
       </c>
       <c r="B30" t="n">
-        <v>4.6738148713925</v>
+        <v>4.51032914874068</v>
       </c>
       <c r="C30" t="n">
-        <v>3.38101277601819</v>
+        <v>4.88892782205296</v>
       </c>
       <c r="D30" t="n">
-        <v>5.61129551401755</v>
+        <v>5.58598551661976</v>
       </c>
       <c r="E30" t="n">
-        <v>4.99447036546705</v>
+        <v>5.49033482889971</v>
       </c>
       <c r="F30" t="n">
-        <v>6.67035940134038</v>
+        <v>5.99488360208093</v>
       </c>
       <c r="G30" t="n">
-        <v>6.53792099923674</v>
+        <v>6.78943580776091</v>
       </c>
       <c r="H30" t="n">
-        <v>7.75698801882057</v>
+        <v>6.84810254933351</v>
       </c>
       <c r="I30" t="n">
-        <v>6.64816668316857</v>
+        <v>7.22488183949836</v>
       </c>
       <c r="J30" t="n">
-        <v>6.55943789474261</v>
+        <v>8.01530163937719</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.3046961794267</v>
+        <v>2.69164061660355</v>
       </c>
       <c r="B31" t="n">
-        <v>3.90516264059506</v>
+        <v>4.09185131613882</v>
       </c>
       <c r="C31" t="n">
-        <v>4.05076398104182</v>
+        <v>4.50750146650736</v>
       </c>
       <c r="D31" t="n">
-        <v>5.2514630172275</v>
+        <v>5.22979053752977</v>
       </c>
       <c r="E31" t="n">
-        <v>5.96939837667141</v>
+        <v>6.21074621508299</v>
       </c>
       <c r="F31" t="n">
-        <v>7.27616299621765</v>
+        <v>6.16845606472952</v>
       </c>
       <c r="G31" t="n">
-        <v>5.85908303521936</v>
+        <v>7.64660613167464</v>
       </c>
       <c r="H31" t="n">
-        <v>8.13388074316086</v>
+        <v>5.92849584068678</v>
       </c>
       <c r="I31" t="n">
-        <v>6.83117006512633</v>
+        <v>7.29196797195847</v>
       </c>
       <c r="J31" t="n">
-        <v>7.30020284382756</v>
+        <v>7.97748215282782</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationStudyData/Model1TwoClasses_Ysim.xlsx
+++ b/SimulationStudyData/Model1TwoClasses_Ysim.xlsx
@@ -407,962 +407,962 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-4.55629583130442</v>
+        <v>-3.72800834153959</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.14610924915121</v>
+        <v>-4.22592648449822</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.04661407617245</v>
+        <v>-4.69136882202649</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.98765886544692</v>
+        <v>-5.05013727659834</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.38967101359874</v>
+        <v>-5.62922314964774</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.88424164775631</v>
+        <v>-5.87456036885656</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.30504739717838</v>
+        <v>-6.39654185356356</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.89937968766425</v>
+        <v>-6.88494894108108</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.71026703178496</v>
+        <v>-7.35353699790412</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.84241533268686</v>
+        <v>-7.61379600390641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.21857834428844</v>
+        <v>-4.18678040079629</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.78786466407844</v>
+        <v>-4.53864727400735</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.29687807575386</v>
+        <v>-5.05651413450372</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.42559053145283</v>
+        <v>-5.24660012935314</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.52126099413009</v>
+        <v>-5.72918738028294</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.13400875449932</v>
+        <v>-5.99202896242005</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.9298119773988</v>
+        <v>-6.43816430508743</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.7134906736368</v>
+        <v>-6.67835670089876</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.61934740512678</v>
+        <v>-7.55872737113617</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.83900230064466</v>
+        <v>-7.27134136306822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.23347808316291</v>
+        <v>-3.95481375936201</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.40427569120602</v>
+        <v>-4.53196820459903</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.20264782771614</v>
+        <v>-4.72840499976272</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.71613374592903</v>
+        <v>-5.3746795907277</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.57777797078384</v>
+        <v>-5.31480829778387</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.29021578863594</v>
+        <v>-5.91136798742195</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.19768346825725</v>
+        <v>-6.32464161056114</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.81413898555876</v>
+        <v>-6.58446964972424</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.32686704358282</v>
+        <v>-7.1521108964045</v>
       </c>
       <c r="J4" t="n">
-        <v>-6.94976481722512</v>
+        <v>-7.60295386273943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.10614907601528</v>
+        <v>-4.07930700686568</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.9933140341582</v>
+        <v>-4.3577531829696</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.23207675234043</v>
+        <v>-4.82685172549237</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.98717122511509</v>
+        <v>-5.13091424221475</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.79110170845943</v>
+        <v>-5.45527489410305</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.31985745291721</v>
+        <v>-6.57888959637379</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.90488912225259</v>
+        <v>-6.57285072693035</v>
       </c>
       <c r="H5" t="n">
-        <v>-7.37891688053969</v>
+        <v>-6.59834289207344</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.00859403986958</v>
+        <v>-7.00099575505662</v>
       </c>
       <c r="J5" t="n">
-        <v>-6.22424625205771</v>
+        <v>-7.77483654978387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.44296075575418</v>
+        <v>-3.56992042607236</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.41920711345306</v>
+        <v>-4.12868295194871</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.8297991781844</v>
+        <v>-4.44539686002336</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.44423038406894</v>
+        <v>-5.13431070541398</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.79559881222178</v>
+        <v>-5.28627643714486</v>
       </c>
       <c r="F6" t="n">
-        <v>-6.9266901989653</v>
+        <v>-5.8987827036102</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.83375020613671</v>
+        <v>-6.58039396749099</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.78549186677274</v>
+        <v>-6.94294748360743</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.51074575745182</v>
+        <v>-6.88458281620971</v>
       </c>
       <c r="J6" t="n">
-        <v>-8.2605614757637</v>
+        <v>-7.71144349249761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.30489744434072</v>
+        <v>-3.74264329072784</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.78495399253988</v>
+        <v>-4.46122625254907</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.82002670818971</v>
+        <v>-4.8506873425557</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.11188246535659</v>
+        <v>-5.20068193592323</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.93031427486982</v>
+        <v>-5.73421001556087</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.91016580953573</v>
+        <v>-6.16636583590532</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.32534678276304</v>
+        <v>-7.11190437087903</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.99802386710078</v>
+        <v>-6.41179223681869</v>
       </c>
       <c r="I7" t="n">
-        <v>-6.15678064244642</v>
+        <v>-7.27990357714552</v>
       </c>
       <c r="J7" t="n">
-        <v>-8.08315308417009</v>
+        <v>-7.96376191508325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.02706073455306</v>
+        <v>-3.62919923202116</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.73505860300392</v>
+        <v>-4.63524171624645</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.70161017337181</v>
+        <v>-4.8158116778438</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.54747250315758</v>
+        <v>-5.25049516604704</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.31141700629202</v>
+        <v>-5.51145303952521</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.60720634457109</v>
+        <v>-6.25840141638922</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.03780220925946</v>
+        <v>-5.99855170933334</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.61139951955189</v>
+        <v>-6.70837137421302</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.57164140799275</v>
+        <v>-6.95536332489393</v>
       </c>
       <c r="J8" t="n">
-        <v>-8.56392867322596</v>
+        <v>-7.42366441637677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.83973425349941</v>
+        <v>-4.32022489474197</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.63895055557663</v>
+        <v>-4.1616595155037</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.47887197844613</v>
+        <v>-5.10795498910386</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.85835111375369</v>
+        <v>-5.27745959977306</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.55157752386473</v>
+        <v>-5.47826219779099</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.23173099867227</v>
+        <v>-6.27632758480268</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.42292449702601</v>
+        <v>-6.53330902905256</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.87058735997456</v>
+        <v>-6.42047302600866</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.72337537820283</v>
+        <v>-6.96269095094635</v>
       </c>
       <c r="J9" t="n">
-        <v>-7.32621608363773</v>
+        <v>-7.82906567426799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.53950903528438</v>
+        <v>-3.98177254655005</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.36455123896152</v>
+        <v>-4.72306633994812</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.61879842863122</v>
+        <v>-4.90419903204789</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.85387642790647</v>
+        <v>-5.35183900224963</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.94622576756246</v>
+        <v>-5.54044251884192</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.2332287810561</v>
+        <v>-6.16044811411624</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.65507436946561</v>
+        <v>-6.27257045069723</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.74996586519378</v>
+        <v>-6.72350666894438</v>
       </c>
       <c r="I10" t="n">
-        <v>-8.44083113892243</v>
+        <v>-7.06558512157104</v>
       </c>
       <c r="J10" t="n">
-        <v>-8.69911324582442</v>
+        <v>-8.02859775806261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.8079599159313</v>
+        <v>-3.6316143161788</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.66026912171884</v>
+        <v>-4.62917080240976</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.02362952020794</v>
+        <v>-4.50397043443859</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.70184962843744</v>
+        <v>-5.12795742107717</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.76691883723286</v>
+        <v>-5.68166114906839</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.46562307020774</v>
+        <v>-6.05913102628697</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.87281775813781</v>
+        <v>-6.26765671648397</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.41811754822927</v>
+        <v>-6.54590347445981</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.3825054637252</v>
+        <v>-7.55211985434291</v>
       </c>
       <c r="J11" t="n">
-        <v>-7.95955867945389</v>
+        <v>-7.39303544705697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.41196653331172</v>
+        <v>-3.83850477746179</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.10374958885217</v>
+        <v>-4.08677293038222</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.82148659416289</v>
+        <v>-4.60483096028087</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.62925638552334</v>
+        <v>-5.20310717384611</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.34437945848979</v>
+        <v>-5.1533564861453</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.10007021348075</v>
+        <v>-5.58537278709741</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.48358624772897</v>
+        <v>-6.34704225645608</v>
       </c>
       <c r="H12" t="n">
-        <v>-9.63105341720762</v>
+        <v>-6.68352871912919</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.7033018208243</v>
+        <v>-7.51487288061836</v>
       </c>
       <c r="J12" t="n">
-        <v>-7.30572336805197</v>
+        <v>-7.7951292729405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-3.17671791695135</v>
+        <v>-3.95156852270614</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.54568006347804</v>
+        <v>-4.73980027430657</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.14646641932383</v>
+        <v>-4.69037407340854</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.13874722970781</v>
+        <v>-5.0475515072808</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.3710075172552</v>
+        <v>-5.6886616995703</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.84766043794088</v>
+        <v>-5.84144183619199</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.91199261507859</v>
+        <v>-6.07192588101448</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.10743368824528</v>
+        <v>-6.94930475778792</v>
       </c>
       <c r="I13" t="n">
-        <v>-6.22853400284711</v>
+        <v>-7.24461549514292</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.29381494491856</v>
+        <v>-7.65348983641759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.34230895794552</v>
+        <v>-4.01199765842549</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.10163545430518</v>
+        <v>-4.45958078925598</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.50779996185884</v>
+        <v>-4.77769745752467</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.30349714507299</v>
+        <v>-5.51095877407253</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.54072865018963</v>
+        <v>-5.70192973774424</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.37037584522168</v>
+        <v>-5.99391164985513</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.45300205179375</v>
+        <v>-6.39172584508039</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.25570141154356</v>
+        <v>-6.71655091672949</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.25909219834943</v>
+        <v>-7.39787921665577</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.00972778596636</v>
+        <v>-7.53169461412159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.24135500005512</v>
+        <v>-3.94820449930688</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.52146912744188</v>
+        <v>-4.27551723605311</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.38583254488575</v>
+        <v>-4.92047077149963</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.97176286418718</v>
+        <v>-5.24691148549781</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.92582316731375</v>
+        <v>-5.7610292021929</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.82857272480694</v>
+        <v>-6.2939905843479</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.73615267066308</v>
+        <v>-6.63880556345543</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.3522749173545</v>
+        <v>-6.61500795612785</v>
       </c>
       <c r="I15" t="n">
-        <v>-6.59461067378167</v>
+        <v>-7.16285632201751</v>
       </c>
       <c r="J15" t="n">
-        <v>-7.38941809250843</v>
+        <v>-7.31071996002433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.53287863582758</v>
+        <v>-3.9370355771195</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.74760132970496</v>
+        <v>-4.44103948522122</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.64154105222551</v>
+        <v>-4.63615698553268</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.87766241053116</v>
+        <v>-5.02070266828643</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.37229515171208</v>
+        <v>-5.71745929856722</v>
       </c>
       <c r="F16" t="n">
-        <v>-7.31597066859955</v>
+        <v>-6.06567486783862</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.49170257266103</v>
+        <v>-6.27168737288866</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.40748220437592</v>
+        <v>-6.62411514674963</v>
       </c>
       <c r="I16" t="n">
-        <v>-7.57649597736439</v>
+        <v>-7.37667062452812</v>
       </c>
       <c r="J16" t="n">
-        <v>-7.92190264913442</v>
+        <v>-7.62120412972296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.22195102520495</v>
+        <v>3.92419823387855</v>
       </c>
       <c r="B17" t="n">
-        <v>4.97864197832918</v>
+        <v>4.45724351428084</v>
       </c>
       <c r="C17" t="n">
-        <v>4.79394674731015</v>
+        <v>4.69802144723374</v>
       </c>
       <c r="D17" t="n">
-        <v>4.97788546604952</v>
+        <v>5.33867393547621</v>
       </c>
       <c r="E17" t="n">
-        <v>5.13188100154666</v>
+        <v>5.5320668227471</v>
       </c>
       <c r="F17" t="n">
-        <v>6.36347684110926</v>
+        <v>6.22010890627385</v>
       </c>
       <c r="G17" t="n">
-        <v>5.90542993600043</v>
+        <v>6.36309662828156</v>
       </c>
       <c r="H17" t="n">
-        <v>7.61823091936829</v>
+        <v>6.5810254935875</v>
       </c>
       <c r="I17" t="n">
-        <v>6.58119531359182</v>
+        <v>7.28081906533244</v>
       </c>
       <c r="J17" t="n">
-        <v>8.07764736075505</v>
+        <v>7.37327371252333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.5740724649935</v>
+        <v>3.96486784687659</v>
       </c>
       <c r="B18" t="n">
-        <v>5.27992049810288</v>
+        <v>4.46338523342469</v>
       </c>
       <c r="C18" t="n">
-        <v>5.42137424521472</v>
+        <v>5.14335257374581</v>
       </c>
       <c r="D18" t="n">
-        <v>5.69264576903633</v>
+        <v>5.2607685343019</v>
       </c>
       <c r="E18" t="n">
-        <v>6.69966916554544</v>
+        <v>5.35369952978649</v>
       </c>
       <c r="F18" t="n">
-        <v>5.6628857040978</v>
+        <v>6.03220066381685</v>
       </c>
       <c r="G18" t="n">
-        <v>6.98048221064783</v>
+        <v>6.01874188608457</v>
       </c>
       <c r="H18" t="n">
-        <v>6.35373807060501</v>
+        <v>6.78052490840319</v>
       </c>
       <c r="I18" t="n">
-        <v>7.87677505565559</v>
+        <v>6.88563006459233</v>
       </c>
       <c r="J18" t="n">
-        <v>6.51439360039857</v>
+        <v>7.61198878460539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.5240984134196</v>
+        <v>4.30594907101396</v>
       </c>
       <c r="B19" t="n">
-        <v>5.61130235563946</v>
+        <v>4.17286952009493</v>
       </c>
       <c r="C19" t="n">
-        <v>4.72513923177284</v>
+        <v>5.13716457409331</v>
       </c>
       <c r="D19" t="n">
-        <v>5.54779430545092</v>
+        <v>4.99322007668485</v>
       </c>
       <c r="E19" t="n">
-        <v>6.67414979816956</v>
+        <v>5.35563964644588</v>
       </c>
       <c r="F19" t="n">
-        <v>6.99735654615024</v>
+        <v>5.84671380399419</v>
       </c>
       <c r="G19" t="n">
-        <v>6.88035494964823</v>
+        <v>6.65160453309954</v>
       </c>
       <c r="H19" t="n">
-        <v>6.12988917906633</v>
+        <v>6.89169801949944</v>
       </c>
       <c r="I19" t="n">
-        <v>7.02559081775899</v>
+        <v>7.12106565292439</v>
       </c>
       <c r="J19" t="n">
-        <v>6.73592286267063</v>
+        <v>7.63824512773522</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.93509643349777</v>
+        <v>3.57027059352182</v>
       </c>
       <c r="B20" t="n">
-        <v>3.52638165458771</v>
+        <v>4.4613338128173</v>
       </c>
       <c r="C20" t="n">
-        <v>4.08702447605519</v>
+        <v>5.00507097853444</v>
       </c>
       <c r="D20" t="n">
-        <v>5.01103804589009</v>
+        <v>5.23629771676212</v>
       </c>
       <c r="E20" t="n">
-        <v>6.40092788363236</v>
+        <v>5.66948723444395</v>
       </c>
       <c r="F20" t="n">
-        <v>5.78815934454826</v>
+        <v>6.11258291285706</v>
       </c>
       <c r="G20" t="n">
-        <v>5.82816162490014</v>
+        <v>6.3726659188134</v>
       </c>
       <c r="H20" t="n">
-        <v>7.42425435005711</v>
+        <v>6.9672887012453</v>
       </c>
       <c r="I20" t="n">
-        <v>7.17041836380447</v>
+        <v>7.39778816355625</v>
       </c>
       <c r="J20" t="n">
-        <v>8.50972127721976</v>
+        <v>7.31343645538341</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.04364205337542</v>
+        <v>3.68978575877822</v>
       </c>
       <c r="B21" t="n">
-        <v>2.93109626263176</v>
+        <v>4.16762994981585</v>
       </c>
       <c r="C21" t="n">
-        <v>5.4375117904583</v>
+        <v>4.68932437060308</v>
       </c>
       <c r="D21" t="n">
-        <v>6.17204548306042</v>
+        <v>5.5014202660206</v>
       </c>
       <c r="E21" t="n">
-        <v>5.50117810526679</v>
+        <v>5.63040395557831</v>
       </c>
       <c r="F21" t="n">
-        <v>6.79161394698697</v>
+        <v>5.87880508364199</v>
       </c>
       <c r="G21" t="n">
-        <v>7.24864464343613</v>
+        <v>6.38584784256197</v>
       </c>
       <c r="H21" t="n">
-        <v>7.32793150853952</v>
+        <v>6.40808480613484</v>
       </c>
       <c r="I21" t="n">
-        <v>8.67647455866204</v>
+        <v>6.88393771890987</v>
       </c>
       <c r="J21" t="n">
-        <v>7.78712946531713</v>
+        <v>7.80201556074632</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.14744022840944</v>
+        <v>3.97355805339885</v>
       </c>
       <c r="B22" t="n">
-        <v>5.09699281907128</v>
+        <v>4.83469810033394</v>
       </c>
       <c r="C22" t="n">
-        <v>4.38823716663646</v>
+        <v>4.89321081809562</v>
       </c>
       <c r="D22" t="n">
-        <v>5.9873632614799</v>
+        <v>5.15500371924894</v>
       </c>
       <c r="E22" t="n">
-        <v>5.30281156779458</v>
+        <v>5.53618537676457</v>
       </c>
       <c r="F22" t="n">
-        <v>5.81873431725186</v>
+        <v>6.06746213959006</v>
       </c>
       <c r="G22" t="n">
-        <v>5.32400597964159</v>
+        <v>6.38738267333843</v>
       </c>
       <c r="H22" t="n">
-        <v>6.34013901682518</v>
+        <v>6.83704584565457</v>
       </c>
       <c r="I22" t="n">
-        <v>7.06216118807775</v>
+        <v>6.72411082583452</v>
       </c>
       <c r="J22" t="n">
-        <v>7.0858199798901</v>
+        <v>7.5078341137152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.32739513812222</v>
+        <v>4.12772354220645</v>
       </c>
       <c r="B23" t="n">
-        <v>4.85111061422458</v>
+        <v>4.32737536874302</v>
       </c>
       <c r="C23" t="n">
-        <v>4.92953271535581</v>
+        <v>4.53631871986676</v>
       </c>
       <c r="D23" t="n">
-        <v>6.8566115654944</v>
+        <v>5.40162093983607</v>
       </c>
       <c r="E23" t="n">
-        <v>5.1097278803524</v>
+        <v>6.07914001942954</v>
       </c>
       <c r="F23" t="n">
-        <v>4.60833306812235</v>
+        <v>5.9395310240623</v>
       </c>
       <c r="G23" t="n">
-        <v>6.42062698215528</v>
+        <v>6.24332015400658</v>
       </c>
       <c r="H23" t="n">
-        <v>6.36983040663088</v>
+        <v>6.3690220577317</v>
       </c>
       <c r="I23" t="n">
-        <v>6.92421374611936</v>
+        <v>7.32638688825807</v>
       </c>
       <c r="J23" t="n">
-        <v>8.49361632007427</v>
+        <v>8.02208420537399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.11018590021176</v>
+        <v>3.76988998275396</v>
       </c>
       <c r="B24" t="n">
-        <v>4.44698082532263</v>
+        <v>4.03154997599992</v>
       </c>
       <c r="C24" t="n">
-        <v>5.07089330028899</v>
+        <v>4.69768287276277</v>
       </c>
       <c r="D24" t="n">
-        <v>5.23535558376307</v>
+        <v>4.96773903836648</v>
       </c>
       <c r="E24" t="n">
-        <v>6.37396385403984</v>
+        <v>5.34186201187892</v>
       </c>
       <c r="F24" t="n">
-        <v>6.88581353452234</v>
+        <v>6.02013709315835</v>
       </c>
       <c r="G24" t="n">
-        <v>7.60873326663175</v>
+        <v>6.42591583877628</v>
       </c>
       <c r="H24" t="n">
-        <v>7.71151846551419</v>
+        <v>6.47269583835836</v>
       </c>
       <c r="I24" t="n">
-        <v>8.1747471445182</v>
+        <v>7.28572689104812</v>
       </c>
       <c r="J24" t="n">
-        <v>8.0191428078053</v>
+        <v>7.96662934940936</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.13741454834257</v>
+        <v>3.85836368068868</v>
       </c>
       <c r="B25" t="n">
-        <v>3.12307443177813</v>
+        <v>4.57219640501704</v>
       </c>
       <c r="C25" t="n">
-        <v>5.92574319717045</v>
+        <v>4.60988387992061</v>
       </c>
       <c r="D25" t="n">
-        <v>3.44136391092636</v>
+        <v>5.24415113232495</v>
       </c>
       <c r="E25" t="n">
-        <v>4.3895747774218</v>
+        <v>5.89652052195746</v>
       </c>
       <c r="F25" t="n">
-        <v>7.70749646548391</v>
+        <v>6.08515531096666</v>
       </c>
       <c r="G25" t="n">
-        <v>7.2498568107423</v>
+        <v>6.22463128805423</v>
       </c>
       <c r="H25" t="n">
-        <v>7.02005079284962</v>
+        <v>6.65780483934793</v>
       </c>
       <c r="I25" t="n">
-        <v>7.16485401891169</v>
+        <v>7.14717118130791</v>
       </c>
       <c r="J25" t="n">
-        <v>8.90019626802214</v>
+        <v>7.74040186658094</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.39537683557782</v>
+        <v>4.10179350748515</v>
       </c>
       <c r="B26" t="n">
-        <v>5.85026101264514</v>
+        <v>4.3409112125464</v>
       </c>
       <c r="C26" t="n">
-        <v>4.60785225458003</v>
+        <v>4.97512721885044</v>
       </c>
       <c r="D26" t="n">
-        <v>4.2181818589591</v>
+        <v>5.59710701428245</v>
       </c>
       <c r="E26" t="n">
-        <v>5.62699826587613</v>
+        <v>5.52599187742318</v>
       </c>
       <c r="F26" t="n">
-        <v>6.38061286196108</v>
+        <v>6.25335900365031</v>
       </c>
       <c r="G26" t="n">
-        <v>7.19742330746211</v>
+        <v>6.01724631427168</v>
       </c>
       <c r="H26" t="n">
-        <v>7.48704190931712</v>
+        <v>6.8415291535292</v>
       </c>
       <c r="I26" t="n">
-        <v>6.75001424262996</v>
+        <v>7.30350193061349</v>
       </c>
       <c r="J26" t="n">
-        <v>6.87846209656221</v>
+        <v>7.40356196670268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.06076010869374</v>
+        <v>4.0470949333076</v>
       </c>
       <c r="B27" t="n">
-        <v>4.972985680887</v>
+        <v>4.68253532215356</v>
       </c>
       <c r="C27" t="n">
-        <v>6.08155047135706</v>
+        <v>5.27526761062208</v>
       </c>
       <c r="D27" t="n">
-        <v>5.22340949807348</v>
+        <v>5.18011260136022</v>
       </c>
       <c r="E27" t="n">
-        <v>5.37906118179981</v>
+        <v>5.78629052959437</v>
       </c>
       <c r="F27" t="n">
-        <v>5.73675003260376</v>
+        <v>5.76397987897224</v>
       </c>
       <c r="G27" t="n">
-        <v>6.88421578718966</v>
+        <v>6.69483430476013</v>
       </c>
       <c r="H27" t="n">
-        <v>7.66659015631653</v>
+        <v>6.78036702800119</v>
       </c>
       <c r="I27" t="n">
-        <v>8.46611993988707</v>
+        <v>7.56248173321802</v>
       </c>
       <c r="J27" t="n">
-        <v>8.77838168800128</v>
+        <v>7.70274454346294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.76864343588243</v>
+        <v>3.98370892762892</v>
       </c>
       <c r="B28" t="n">
-        <v>3.45773074862876</v>
+        <v>4.3478200724363</v>
       </c>
       <c r="C28" t="n">
-        <v>4.75598311725304</v>
+        <v>4.55977535624035</v>
       </c>
       <c r="D28" t="n">
-        <v>5.92627590993834</v>
+        <v>5.0489339037337</v>
       </c>
       <c r="E28" t="n">
-        <v>5.18507846852703</v>
+        <v>5.2274034846641</v>
       </c>
       <c r="F28" t="n">
-        <v>6.56858187421099</v>
+        <v>6.08298788150958</v>
       </c>
       <c r="G28" t="n">
-        <v>6.11077212702348</v>
+        <v>6.51421704455768</v>
       </c>
       <c r="H28" t="n">
-        <v>6.53805917085604</v>
+        <v>6.82798752347016</v>
       </c>
       <c r="I28" t="n">
-        <v>7.34627757864555</v>
+        <v>7.08672903868972</v>
       </c>
       <c r="J28" t="n">
-        <v>7.73273094466954</v>
+        <v>7.20159694614863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.04432729251041</v>
+        <v>4.19027839628792</v>
       </c>
       <c r="B29" t="n">
-        <v>2.79707831333393</v>
+        <v>4.54765917770118</v>
       </c>
       <c r="C29" t="n">
-        <v>5.56991379730441</v>
+        <v>4.84538092103636</v>
       </c>
       <c r="D29" t="n">
-        <v>6.38256317544184</v>
+        <v>4.82257159536127</v>
       </c>
       <c r="E29" t="n">
-        <v>5.5522465368714</v>
+        <v>5.49150384295169</v>
       </c>
       <c r="F29" t="n">
-        <v>6.00975042429905</v>
+        <v>6.00341314968609</v>
       </c>
       <c r="G29" t="n">
-        <v>7.71697304278876</v>
+        <v>6.50499328081629</v>
       </c>
       <c r="H29" t="n">
-        <v>6.83018643327679</v>
+        <v>7.18733076087676</v>
       </c>
       <c r="I29" t="n">
-        <v>7.43262747557637</v>
+        <v>7.40294435263291</v>
       </c>
       <c r="J29" t="n">
-        <v>7.53270125891654</v>
+        <v>7.99574047505849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.77022613528726</v>
+        <v>4.04472012354663</v>
       </c>
       <c r="B30" t="n">
-        <v>4.51032914874068</v>
+        <v>4.3415075986709</v>
       </c>
       <c r="C30" t="n">
-        <v>4.88892782205296</v>
+        <v>4.96408411258702</v>
       </c>
       <c r="D30" t="n">
-        <v>5.58598551661976</v>
+        <v>4.8235118017037</v>
       </c>
       <c r="E30" t="n">
-        <v>5.49033482889971</v>
+        <v>5.26004777816905</v>
       </c>
       <c r="F30" t="n">
-        <v>5.99488360208093</v>
+        <v>6.53406982884713</v>
       </c>
       <c r="G30" t="n">
-        <v>6.78943580776091</v>
+        <v>6.52497196550229</v>
       </c>
       <c r="H30" t="n">
-        <v>6.84810254933351</v>
+        <v>6.55502187479815</v>
       </c>
       <c r="I30" t="n">
-        <v>7.22488183949836</v>
+        <v>7.08361520912307</v>
       </c>
       <c r="J30" t="n">
-        <v>8.01530163937719</v>
+        <v>8.02101683214165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.69164061660355</v>
+        <v>4.20610097570681</v>
       </c>
       <c r="B31" t="n">
-        <v>4.09185131613882</v>
+        <v>3.99594595385988</v>
       </c>
       <c r="C31" t="n">
-        <v>4.50750146650736</v>
+        <v>5.08703483270348</v>
       </c>
       <c r="D31" t="n">
-        <v>5.22979053752977</v>
+        <v>5.25252023216682</v>
       </c>
       <c r="E31" t="n">
-        <v>6.21074621508299</v>
+        <v>5.21257459901081</v>
       </c>
       <c r="F31" t="n">
-        <v>6.16845606472952</v>
+        <v>6.0231899099447</v>
       </c>
       <c r="G31" t="n">
-        <v>7.64660613167464</v>
+        <v>6.22445270440569</v>
       </c>
       <c r="H31" t="n">
-        <v>5.92849584068678</v>
+        <v>7.49072847899156</v>
       </c>
       <c r="I31" t="n">
-        <v>7.29196797195847</v>
+        <v>7.3125096532091</v>
       </c>
       <c r="J31" t="n">
-        <v>7.97748215282782</v>
+        <v>7.46541197563408</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationStudyData/Model1TwoClasses_Ysim.xlsx
+++ b/SimulationStudyData/Model1TwoClasses_Ysim.xlsx
@@ -407,962 +407,962 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.72800834153959</v>
+        <v>-3.93295510436237</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.22592648449822</v>
+        <v>-4.32448726703197</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.69136882202649</v>
+        <v>-4.81174285352088</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.05013727659834</v>
+        <v>-4.88955071433832</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.62922314964774</v>
+        <v>-5.04647814571251</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.87456036885656</v>
+        <v>-5.89488293346006</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.39654185356356</v>
+        <v>-6.43153430299104</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.88494894108108</v>
+        <v>-6.36586498848127</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.35353699790412</v>
+        <v>-6.88287398821664</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.61379600390641</v>
+        <v>-6.88729824482948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.18678040079629</v>
+        <v>-3.57016732612557</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.53864727400735</v>
+        <v>-4.23545197147434</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.05651413450372</v>
+        <v>-4.35991565670763</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.24660012935314</v>
+        <v>-5.08807011870234</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.72918738028294</v>
+        <v>-4.94332318714857</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.99202896242005</v>
+        <v>-5.71053747510735</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.43816430508743</v>
+        <v>-6.26763326780523</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.67835670089876</v>
+        <v>-6.26802217286612</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.55872737113617</v>
+        <v>-6.67089322380559</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.27134136306822</v>
+        <v>-7.18893950172465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.95481375936201</v>
+        <v>-4.0778972993159</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.53196820459903</v>
+        <v>-4.41599232798966</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.72840499976272</v>
+        <v>-4.63802705911088</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.3746795907277</v>
+        <v>-4.94032058948552</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.31480829778387</v>
+        <v>-5.17147259532423</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.91136798742195</v>
+        <v>-6.07289519484086</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.32464161056114</v>
+        <v>-5.82056050280909</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.58446964972424</v>
+        <v>-6.03513938558143</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.1521108964045</v>
+        <v>-6.23370430488046</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.60295386273943</v>
+        <v>-7.52887897487204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.07930700686568</v>
+        <v>-3.96063950859</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.3577531829696</v>
+        <v>-4.29955573934836</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.82685172549237</v>
+        <v>-4.78356543165289</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.13091424221475</v>
+        <v>-5.04597519656908</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.45527489410305</v>
+        <v>-5.07423764203135</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.57888959637379</v>
+        <v>-5.8218493109374</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.57285072693035</v>
+        <v>-6.13653305342051</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.59834289207344</v>
+        <v>-6.35890718204497</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.00099575505662</v>
+        <v>-6.69130243343105</v>
       </c>
       <c r="J5" t="n">
-        <v>-7.77483654978387</v>
+        <v>-7.07213188835276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.56992042607236</v>
+        <v>-3.7226565256136</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.12868295194871</v>
+        <v>-4.2825603760059</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.44539686002336</v>
+        <v>-4.90988897451099</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.13431070541398</v>
+        <v>-4.729810227449</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.28627643714486</v>
+        <v>-5.93506775991578</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.8987827036102</v>
+        <v>-5.89841624267609</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.58039396749099</v>
+        <v>-5.78874959575438</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.94294748360743</v>
+        <v>-6.56663176889228</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.88458281620971</v>
+        <v>-6.52050931457301</v>
       </c>
       <c r="J6" t="n">
-        <v>-7.71144349249761</v>
+        <v>-7.02823402755389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.74264329072784</v>
+        <v>-4.14072504409646</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.46122625254907</v>
+        <v>-4.22579256266003</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.8506873425557</v>
+        <v>-4.83824330822013</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.20068193592323</v>
+        <v>-4.76143519740811</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.73421001556087</v>
+        <v>-5.55837567550395</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.16636583590532</v>
+        <v>-5.91082111030379</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.11190437087903</v>
+        <v>-6.09062178773879</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.41179223681869</v>
+        <v>-6.24601565578095</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.27990357714552</v>
+        <v>-6.74803696405616</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.96376191508325</v>
+        <v>-6.92565945493152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.62919923202116</v>
+        <v>-3.54094572169159</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.63524171624645</v>
+        <v>-4.33419438412495</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.8158116778438</v>
+        <v>-5.16652350632007</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.25049516604704</v>
+        <v>-4.83446726636978</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.51145303952521</v>
+        <v>-5.21061744543454</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.25840141638922</v>
+        <v>-5.80546913254056</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.99855170933334</v>
+        <v>-5.57809803194441</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.70837137421302</v>
+        <v>-6.40653780864984</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.95536332489393</v>
+        <v>-6.66226110871493</v>
       </c>
       <c r="J8" t="n">
-        <v>-7.42366441637677</v>
+        <v>-7.38942916772263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.32022489474197</v>
+        <v>-4.24780812300183</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.1616595155037</v>
+        <v>-4.18236940207036</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.10795498910386</v>
+        <v>-4.38972803203681</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.27745959977306</v>
+        <v>-4.92524692211907</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.47826219779099</v>
+        <v>-5.55561668435452</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.27632758480268</v>
+        <v>-5.5206759511493</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.53330902905256</v>
+        <v>-6.07836830827721</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.42047302600866</v>
+        <v>-6.46610223734451</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.96269095094635</v>
+        <v>-6.79325544776114</v>
       </c>
       <c r="J9" t="n">
-        <v>-7.82906567426799</v>
+        <v>-6.73686094180272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.98177254655005</v>
+        <v>-3.90301422272701</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.72306633994812</v>
+        <v>-4.50716743382093</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.90419903204789</v>
+        <v>-4.60440922151251</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.35183900224963</v>
+        <v>-5.11675156309145</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.54044251884192</v>
+        <v>-5.27859782498279</v>
       </c>
       <c r="F10" t="n">
-        <v>-6.16044811411624</v>
+        <v>-5.62421454372878</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.27257045069723</v>
+        <v>-6.09866814449151</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.72350666894438</v>
+        <v>-6.28194246264936</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.06558512157104</v>
+        <v>-7.08385888675074</v>
       </c>
       <c r="J10" t="n">
-        <v>-8.02859775806261</v>
+        <v>-6.7933502587411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.6316143161788</v>
+        <v>-4.16344538806542</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.62917080240976</v>
+        <v>-4.38519951215472</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.50397043443859</v>
+        <v>-4.78907966661568</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.12795742107717</v>
+        <v>-4.89077130785956</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.68166114906839</v>
+        <v>-5.07956154602301</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.05913102628697</v>
+        <v>-5.45704353060222</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.26765671648397</v>
+        <v>-5.83116962292982</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.54590347445981</v>
+        <v>-6.49548270244009</v>
       </c>
       <c r="I11" t="n">
-        <v>-7.55211985434291</v>
+        <v>-6.94904800962128</v>
       </c>
       <c r="J11" t="n">
-        <v>-7.39303544705697</v>
+        <v>-7.58623383030815</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.83850477746179</v>
+        <v>-3.96989021719974</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.08677293038222</v>
+        <v>-4.22745089008796</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.60483096028087</v>
+        <v>-4.34524569319643</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.20310717384611</v>
+        <v>-4.83464485113657</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.1533564861453</v>
+        <v>-5.14228545940951</v>
       </c>
       <c r="F12" t="n">
-        <v>-5.58537278709741</v>
+        <v>-5.58303838409766</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.34704225645608</v>
+        <v>-6.2752093279548</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.68352871912919</v>
+        <v>-6.66852466035927</v>
       </c>
       <c r="I12" t="n">
-        <v>-7.51487288061836</v>
+        <v>-6.58186909968456</v>
       </c>
       <c r="J12" t="n">
-        <v>-7.7951292729405</v>
+        <v>-7.08137599863611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-3.95156852270614</v>
+        <v>-3.80162451680115</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.73980027430657</v>
+        <v>-4.33686649626328</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.69037407340854</v>
+        <v>-4.48647685975377</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.0475515072808</v>
+        <v>-4.80843327594965</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.6886616995703</v>
+        <v>-5.2919259741121</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.84144183619199</v>
+        <v>-6.08747496638496</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.07192588101448</v>
+        <v>-5.91216167054012</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.94930475778792</v>
+        <v>-6.21533962548566</v>
       </c>
       <c r="I13" t="n">
-        <v>-7.24461549514292</v>
+        <v>-6.80877638341179</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.65348983641759</v>
+        <v>-6.70804996668942</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.01199765842549</v>
+        <v>-4.167394880261</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.45958078925598</v>
+        <v>-4.32862466289793</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.77769745752467</v>
+        <v>-4.47390424421498</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.51095877407253</v>
+        <v>-4.88286697107054</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.70192973774424</v>
+        <v>-5.23819269440703</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.99391164985513</v>
+        <v>-5.51243567819858</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.39172584508039</v>
+        <v>-6.03298135491264</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.71655091672949</v>
+        <v>-6.24901109859812</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.39787921665577</v>
+        <v>-6.64027313014284</v>
       </c>
       <c r="J14" t="n">
-        <v>-7.53169461412159</v>
+        <v>-7.0459797235055</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.94820449930688</v>
+        <v>-3.6207880074571</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.27551723605311</v>
+        <v>-4.07776338242093</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.92047077149963</v>
+        <v>-4.29084857770359</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.24691148549781</v>
+        <v>-5.3152910799501</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.7610292021929</v>
+        <v>-5.39027039005319</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.2939905843479</v>
+        <v>-5.52081528522226</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.63880556345543</v>
+        <v>-6.07165026667672</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.61500795612785</v>
+        <v>-6.02529577989791</v>
       </c>
       <c r="I15" t="n">
-        <v>-7.16285632201751</v>
+        <v>-6.67421389525791</v>
       </c>
       <c r="J15" t="n">
-        <v>-7.31071996002433</v>
+        <v>-7.02582143578664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.9370355771195</v>
+        <v>-3.92097281635818</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.44103948522122</v>
+        <v>-3.97836234929809</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.63615698553268</v>
+        <v>-4.58773932018602</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.02070266828643</v>
+        <v>-4.72702340234858</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.71745929856722</v>
+        <v>-5.45528350780334</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.06567486783862</v>
+        <v>-5.39638351802145</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.27168737288866</v>
+        <v>-5.94941287909366</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.62411514674963</v>
+        <v>-6.34355625186993</v>
       </c>
       <c r="I16" t="n">
-        <v>-7.37667062452812</v>
+        <v>-6.64312328112308</v>
       </c>
       <c r="J16" t="n">
-        <v>-7.62120412972296</v>
+        <v>-7.11773155333024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.92419823387855</v>
+        <v>5.19191890403294</v>
       </c>
       <c r="B17" t="n">
-        <v>4.45724351428084</v>
+        <v>6.07718588417319</v>
       </c>
       <c r="C17" t="n">
-        <v>4.69802144723374</v>
+        <v>6.74358087096051</v>
       </c>
       <c r="D17" t="n">
-        <v>5.33867393547621</v>
+        <v>7.00059346611913</v>
       </c>
       <c r="E17" t="n">
-        <v>5.5320668227471</v>
+        <v>8.55064881097155</v>
       </c>
       <c r="F17" t="n">
-        <v>6.22010890627385</v>
+        <v>8.90877926710426</v>
       </c>
       <c r="G17" t="n">
-        <v>6.36309662828156</v>
+        <v>10.0771744893724</v>
       </c>
       <c r="H17" t="n">
-        <v>6.5810254935875</v>
+        <v>11.1130433512125</v>
       </c>
       <c r="I17" t="n">
-        <v>7.28081906533244</v>
+        <v>12.0439709730902</v>
       </c>
       <c r="J17" t="n">
-        <v>7.37327371252333</v>
+        <v>12.9066154135964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.96486784687659</v>
+        <v>5.23797919920445</v>
       </c>
       <c r="B18" t="n">
-        <v>4.46338523342469</v>
+        <v>5.17078124059001</v>
       </c>
       <c r="C18" t="n">
-        <v>5.14335257374581</v>
+        <v>6.6584314260516</v>
       </c>
       <c r="D18" t="n">
-        <v>5.2607685343019</v>
+        <v>7.70635551944486</v>
       </c>
       <c r="E18" t="n">
-        <v>5.35369952978649</v>
+        <v>8.09346821820686</v>
       </c>
       <c r="F18" t="n">
-        <v>6.03220066381685</v>
+        <v>8.96209381045505</v>
       </c>
       <c r="G18" t="n">
-        <v>6.01874188608457</v>
+        <v>10.0224542664956</v>
       </c>
       <c r="H18" t="n">
-        <v>6.78052490840319</v>
+        <v>10.5818992821772</v>
       </c>
       <c r="I18" t="n">
-        <v>6.88563006459233</v>
+        <v>11.8755098687063</v>
       </c>
       <c r="J18" t="n">
-        <v>7.61198878460539</v>
+        <v>12.3611286580009</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.30594907101396</v>
+        <v>4.77862130263359</v>
       </c>
       <c r="B19" t="n">
-        <v>4.17286952009493</v>
+        <v>5.89623628812391</v>
       </c>
       <c r="C19" t="n">
-        <v>5.13716457409331</v>
+        <v>6.46272569889107</v>
       </c>
       <c r="D19" t="n">
-        <v>4.99322007668485</v>
+        <v>7.71866294837244</v>
       </c>
       <c r="E19" t="n">
-        <v>5.35563964644588</v>
+        <v>8.32668312224323</v>
       </c>
       <c r="F19" t="n">
-        <v>5.84671380399419</v>
+        <v>9.49824087587763</v>
       </c>
       <c r="G19" t="n">
-        <v>6.65160453309954</v>
+        <v>9.75926639396917</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89169801949944</v>
+        <v>10.7777801157708</v>
       </c>
       <c r="I19" t="n">
-        <v>7.12106565292439</v>
+        <v>12.0441981443927</v>
       </c>
       <c r="J19" t="n">
-        <v>7.63824512773522</v>
+        <v>12.2849961917855</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.57027059352182</v>
+        <v>4.4837562174743</v>
       </c>
       <c r="B20" t="n">
-        <v>4.4613338128173</v>
+        <v>5.6792636630052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.00507097853444</v>
+        <v>6.66412998395514</v>
       </c>
       <c r="D20" t="n">
-        <v>5.23629771676212</v>
+        <v>7.07549741390278</v>
       </c>
       <c r="E20" t="n">
-        <v>5.66948723444395</v>
+        <v>8.09312217383545</v>
       </c>
       <c r="F20" t="n">
-        <v>6.11258291285706</v>
+        <v>8.93652858141912</v>
       </c>
       <c r="G20" t="n">
-        <v>6.3726659188134</v>
+        <v>9.80049175321411</v>
       </c>
       <c r="H20" t="n">
-        <v>6.9672887012453</v>
+        <v>10.6732321269595</v>
       </c>
       <c r="I20" t="n">
-        <v>7.39778816355625</v>
+        <v>11.577668489065</v>
       </c>
       <c r="J20" t="n">
-        <v>7.31343645538341</v>
+        <v>12.7802645287966</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.68978575877822</v>
+        <v>4.90092949118428</v>
       </c>
       <c r="B21" t="n">
-        <v>4.16762994981585</v>
+        <v>5.93620206338423</v>
       </c>
       <c r="C21" t="n">
-        <v>4.68932437060308</v>
+        <v>6.65739428949823</v>
       </c>
       <c r="D21" t="n">
-        <v>5.5014202660206</v>
+        <v>7.48924970432878</v>
       </c>
       <c r="E21" t="n">
-        <v>5.63040395557831</v>
+        <v>8.68234602908315</v>
       </c>
       <c r="F21" t="n">
-        <v>5.87880508364199</v>
+        <v>9.29039330314109</v>
       </c>
       <c r="G21" t="n">
-        <v>6.38584784256197</v>
+        <v>9.69172371529842</v>
       </c>
       <c r="H21" t="n">
-        <v>6.40808480613484</v>
+        <v>10.3065038194703</v>
       </c>
       <c r="I21" t="n">
-        <v>6.88393771890987</v>
+        <v>11.6719713417833</v>
       </c>
       <c r="J21" t="n">
-        <v>7.80201556074632</v>
+        <v>12.7623318981658</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.97355805339885</v>
+        <v>4.93101089878009</v>
       </c>
       <c r="B22" t="n">
-        <v>4.83469810033394</v>
+        <v>5.82273852883379</v>
       </c>
       <c r="C22" t="n">
-        <v>4.89321081809562</v>
+        <v>6.55507055607138</v>
       </c>
       <c r="D22" t="n">
-        <v>5.15500371924894</v>
+        <v>7.19751167719728</v>
       </c>
       <c r="E22" t="n">
-        <v>5.53618537676457</v>
+        <v>8.41004664376549</v>
       </c>
       <c r="F22" t="n">
-        <v>6.06746213959006</v>
+        <v>9.21919426728026</v>
       </c>
       <c r="G22" t="n">
-        <v>6.38738267333843</v>
+        <v>9.93038992007093</v>
       </c>
       <c r="H22" t="n">
-        <v>6.83704584565457</v>
+        <v>10.9072792729892</v>
       </c>
       <c r="I22" t="n">
-        <v>6.72411082583452</v>
+        <v>11.8095152703517</v>
       </c>
       <c r="J22" t="n">
-        <v>7.5078341137152</v>
+        <v>12.3309005403931</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.12772354220645</v>
+        <v>4.99757855290371</v>
       </c>
       <c r="B23" t="n">
-        <v>4.32737536874302</v>
+        <v>5.38452778314147</v>
       </c>
       <c r="C23" t="n">
-        <v>4.53631871986676</v>
+        <v>6.85968415628353</v>
       </c>
       <c r="D23" t="n">
-        <v>5.40162093983607</v>
+        <v>7.63167445843951</v>
       </c>
       <c r="E23" t="n">
-        <v>6.07914001942954</v>
+        <v>8.40828856700683</v>
       </c>
       <c r="F23" t="n">
-        <v>5.9395310240623</v>
+        <v>8.72061536496807</v>
       </c>
       <c r="G23" t="n">
-        <v>6.24332015400658</v>
+        <v>9.84428203800829</v>
       </c>
       <c r="H23" t="n">
-        <v>6.3690220577317</v>
+        <v>10.9654564809118</v>
       </c>
       <c r="I23" t="n">
-        <v>7.32638688825807</v>
+        <v>11.7177170598744</v>
       </c>
       <c r="J23" t="n">
-        <v>8.02208420537399</v>
+        <v>12.0248480444445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.76988998275396</v>
+        <v>4.80020216840592</v>
       </c>
       <c r="B24" t="n">
-        <v>4.03154997599992</v>
+        <v>6.02256468380303</v>
       </c>
       <c r="C24" t="n">
-        <v>4.69768287276277</v>
+        <v>6.68344952520791</v>
       </c>
       <c r="D24" t="n">
-        <v>4.96773903836648</v>
+        <v>7.92270594009982</v>
       </c>
       <c r="E24" t="n">
-        <v>5.34186201187892</v>
+        <v>8.33354410754945</v>
       </c>
       <c r="F24" t="n">
-        <v>6.02013709315835</v>
+        <v>9.47926266001691</v>
       </c>
       <c r="G24" t="n">
-        <v>6.42591583877628</v>
+        <v>9.78929122323204</v>
       </c>
       <c r="H24" t="n">
-        <v>6.47269583835836</v>
+        <v>10.8767209390896</v>
       </c>
       <c r="I24" t="n">
-        <v>7.28572689104812</v>
+        <v>11.6618786739703</v>
       </c>
       <c r="J24" t="n">
-        <v>7.96662934940936</v>
+        <v>12.532355870849</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.85836368068868</v>
+        <v>4.78600434488283</v>
       </c>
       <c r="B25" t="n">
-        <v>4.57219640501704</v>
+        <v>5.88849597704204</v>
       </c>
       <c r="C25" t="n">
-        <v>4.60988387992061</v>
+        <v>6.57813401902563</v>
       </c>
       <c r="D25" t="n">
-        <v>5.24415113232495</v>
+        <v>7.36724569715041</v>
       </c>
       <c r="E25" t="n">
-        <v>5.89652052195746</v>
+        <v>8.42039002286906</v>
       </c>
       <c r="F25" t="n">
-        <v>6.08515531096666</v>
+        <v>8.92294320741798</v>
       </c>
       <c r="G25" t="n">
-        <v>6.22463128805423</v>
+        <v>10.4118851495973</v>
       </c>
       <c r="H25" t="n">
-        <v>6.65780483934793</v>
+        <v>11.009692576132</v>
       </c>
       <c r="I25" t="n">
-        <v>7.14717118130791</v>
+        <v>11.3434625918359</v>
       </c>
       <c r="J25" t="n">
-        <v>7.74040186658094</v>
+        <v>12.1591417606952</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.10179350748515</v>
+        <v>4.36071004703157</v>
       </c>
       <c r="B26" t="n">
-        <v>4.3409112125464</v>
+        <v>5.78371192222017</v>
       </c>
       <c r="C26" t="n">
-        <v>4.97512721885044</v>
+        <v>6.33117274775748</v>
       </c>
       <c r="D26" t="n">
-        <v>5.59710701428245</v>
+        <v>7.50049570692454</v>
       </c>
       <c r="E26" t="n">
-        <v>5.52599187742318</v>
+        <v>8.25719061374167</v>
       </c>
       <c r="F26" t="n">
-        <v>6.25335900365031</v>
+        <v>9.23041320151983</v>
       </c>
       <c r="G26" t="n">
-        <v>6.01724631427168</v>
+        <v>9.84815250650777</v>
       </c>
       <c r="H26" t="n">
-        <v>6.8415291535292</v>
+        <v>10.6480652225455</v>
       </c>
       <c r="I26" t="n">
-        <v>7.30350193061349</v>
+        <v>11.3547888584323</v>
       </c>
       <c r="J26" t="n">
-        <v>7.40356196670268</v>
+        <v>12.5105067702542</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.0470949333076</v>
+        <v>5.04770022929435</v>
       </c>
       <c r="B27" t="n">
-        <v>4.68253532215356</v>
+        <v>5.36242216480512</v>
       </c>
       <c r="C27" t="n">
-        <v>5.27526761062208</v>
+        <v>6.63150093097095</v>
       </c>
       <c r="D27" t="n">
-        <v>5.18011260136022</v>
+        <v>7.51814323033361</v>
       </c>
       <c r="E27" t="n">
-        <v>5.78629052959437</v>
+        <v>8.07276064710747</v>
       </c>
       <c r="F27" t="n">
-        <v>5.76397987897224</v>
+        <v>9.44818176102736</v>
       </c>
       <c r="G27" t="n">
-        <v>6.69483430476013</v>
+        <v>9.8785792822964</v>
       </c>
       <c r="H27" t="n">
-        <v>6.78036702800119</v>
+        <v>10.8408217183018</v>
       </c>
       <c r="I27" t="n">
-        <v>7.56248173321802</v>
+        <v>11.8491682833705</v>
       </c>
       <c r="J27" t="n">
-        <v>7.70274454346294</v>
+        <v>12.6686672562744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.98370892762892</v>
+        <v>4.84072743509003</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3478200724363</v>
+        <v>5.78855495314399</v>
       </c>
       <c r="C28" t="n">
-        <v>4.55977535624035</v>
+        <v>6.34130044240249</v>
       </c>
       <c r="D28" t="n">
-        <v>5.0489339037337</v>
+        <v>7.03293522715407</v>
       </c>
       <c r="E28" t="n">
-        <v>5.2274034846641</v>
+        <v>8.6565979005026</v>
       </c>
       <c r="F28" t="n">
-        <v>6.08298788150958</v>
+        <v>9.29053111086004</v>
       </c>
       <c r="G28" t="n">
-        <v>6.51421704455768</v>
+        <v>9.86618748727713</v>
       </c>
       <c r="H28" t="n">
-        <v>6.82798752347016</v>
+        <v>11.0514090547331</v>
       </c>
       <c r="I28" t="n">
-        <v>7.08672903868972</v>
+        <v>11.345178734729</v>
       </c>
       <c r="J28" t="n">
-        <v>7.20159694614863</v>
+        <v>12.4306512975876</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.19027839628792</v>
+        <v>4.87520841972929</v>
       </c>
       <c r="B29" t="n">
-        <v>4.54765917770118</v>
+        <v>5.65714223619177</v>
       </c>
       <c r="C29" t="n">
-        <v>4.84538092103636</v>
+        <v>6.37928591365066</v>
       </c>
       <c r="D29" t="n">
-        <v>4.82257159536127</v>
+        <v>7.40505708152444</v>
       </c>
       <c r="E29" t="n">
-        <v>5.49150384295169</v>
+        <v>8.16995837709835</v>
       </c>
       <c r="F29" t="n">
-        <v>6.00341314968609</v>
+        <v>9.04532376262111</v>
       </c>
       <c r="G29" t="n">
-        <v>6.50499328081629</v>
+        <v>10.1144978667961</v>
       </c>
       <c r="H29" t="n">
-        <v>7.18733076087676</v>
+        <v>10.7197145013181</v>
       </c>
       <c r="I29" t="n">
-        <v>7.40294435263291</v>
+        <v>11.783485535714</v>
       </c>
       <c r="J29" t="n">
-        <v>7.99574047505849</v>
+        <v>12.2723332461314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.04472012354663</v>
+        <v>4.75992052344842</v>
       </c>
       <c r="B30" t="n">
-        <v>4.3415075986709</v>
+        <v>5.86300308337642</v>
       </c>
       <c r="C30" t="n">
-        <v>4.96408411258702</v>
+        <v>7.00957873299394</v>
       </c>
       <c r="D30" t="n">
-        <v>4.8235118017037</v>
+        <v>7.79782328867883</v>
       </c>
       <c r="E30" t="n">
-        <v>5.26004777816905</v>
+        <v>8.40560902809659</v>
       </c>
       <c r="F30" t="n">
-        <v>6.53406982884713</v>
+        <v>9.08196558243195</v>
       </c>
       <c r="G30" t="n">
-        <v>6.52497196550229</v>
+        <v>9.75330265953524</v>
       </c>
       <c r="H30" t="n">
-        <v>6.55502187479815</v>
+        <v>11.1411431421832</v>
       </c>
       <c r="I30" t="n">
-        <v>7.08361520912307</v>
+        <v>11.582282673775</v>
       </c>
       <c r="J30" t="n">
-        <v>8.02101683214165</v>
+        <v>12.8390647605019</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.20610097570681</v>
+        <v>4.9309952912758</v>
       </c>
       <c r="B31" t="n">
-        <v>3.99594595385988</v>
+        <v>5.84727035214019</v>
       </c>
       <c r="C31" t="n">
-        <v>5.08703483270348</v>
+        <v>6.37437541568251</v>
       </c>
       <c r="D31" t="n">
-        <v>5.25252023216682</v>
+        <v>7.54271155903547</v>
       </c>
       <c r="E31" t="n">
-        <v>5.21257459901081</v>
+        <v>8.61998640419224</v>
       </c>
       <c r="F31" t="n">
-        <v>6.0231899099447</v>
+        <v>9.53323369384151</v>
       </c>
       <c r="G31" t="n">
-        <v>6.22445270440569</v>
+        <v>10.1879087920821</v>
       </c>
       <c r="H31" t="n">
-        <v>7.49072847899156</v>
+        <v>11.0155671358855</v>
       </c>
       <c r="I31" t="n">
-        <v>7.3125096532091</v>
+        <v>11.7428517572896</v>
       </c>
       <c r="J31" t="n">
-        <v>7.46541197563408</v>
+        <v>12.7580468867884</v>
       </c>
     </row>
   </sheetData>
